--- a/sample.xlsx
+++ b/sample.xlsx
@@ -19,25 +19,139 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Noto Sans CJK JP"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">オプション。記入されていない場合は開始日一日のイベント。指定した場合この日を含むイベントが作成される。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Google</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Noto Sans CJK JP"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">側の作成日。更新不可</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Google</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Noto Sans CJK JP"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">側の更新日。更新不可</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Google</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Noto Sans CJK JP"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">側の</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Noto Sans CJK JP"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">。編集不可。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">日付</t>
   </si>
   <si>
-    <t xml:space="preserve">終了日(オプション)</t>
+    <t xml:space="preserve">終了日</t>
   </si>
   <si>
     <t xml:space="preserve">行事</t>
   </si>
   <si>
+    <t xml:space="preserve">内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作成日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新日</t>
+  </si>
+  <si>
     <t xml:space="preserve">イベントID</t>
   </si>
   <si>
     <t xml:space="preserve">春季休業日終</t>
   </si>
   <si>
+    <t xml:space="preserve">春休み終了</t>
+  </si>
+  <si>
     <t xml:space="preserve">始業式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00開始
+給食なし</t>
   </si>
   <si>
     <t xml:space="preserve">入学式</t>
@@ -51,7 +165,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m\月d\日"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK JP"/>
@@ -78,6 +192,16 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK JP"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,7 +246,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -131,16 +255,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -266,116 +406,162 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>45748</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>45749</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45750</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45751</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45752</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45753</v>
       </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>45754</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>45755</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>45756</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>45757</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>45758</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="1048111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -851,5 +1037,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12 ページ &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>